--- a/output/61bbdb19-1f94-4617-8814-9148f0a43000/61bbdb19-1f94-4617-8814-9148f0a43000_notes_transformed_standard_cropped_df.xlsx
+++ b/output/61bbdb19-1f94-4617-8814-9148f0a43000/61bbdb19-1f94-4617-8814-9148f0a43000_notes_transformed_standard_cropped_df.xlsx
@@ -10,27 +10,29 @@
     <sheet name="8__038f385a-1d6c-3f7" sheetId="1" r:id="rId1"/>
     <sheet name="9__e49a50c5-fc40-348" sheetId="2" r:id="rId2"/>
     <sheet name="10__15014b4d-61d4-35" sheetId="3" r:id="rId3"/>
-    <sheet name="7_(a)_c83758f9-d318-" sheetId="4" r:id="rId4"/>
-    <sheet name="7_(a)_5c9b1d03-58f3-" sheetId="5" r:id="rId5"/>
-    <sheet name="12__51c61e95-fc3c-3e" sheetId="6" r:id="rId6"/>
-    <sheet name="13__51c61e95-fc3c-3e" sheetId="7" r:id="rId7"/>
-    <sheet name="13__ce85c201-f65d-3a" sheetId="8" r:id="rId8"/>
-    <sheet name="14__ff944637-e0b0-3d" sheetId="9" r:id="rId9"/>
-    <sheet name="15__d53d4967-c596-36" sheetId="10" r:id="rId10"/>
-    <sheet name="15__ec79c015-ce95-34" sheetId="11" r:id="rId11"/>
-    <sheet name="15__0d429d65-e9d0-3d" sheetId="12" r:id="rId12"/>
-    <sheet name="15__ea17fabf-481c-30" sheetId="13" r:id="rId13"/>
-    <sheet name="16__c83758f9-d318-34" sheetId="14" r:id="rId14"/>
-    <sheet name="2__8ad934fd-533f-3a9" sheetId="15" r:id="rId15"/>
-    <sheet name="3__e382c558-d8ea-313" sheetId="16" r:id="rId16"/>
-    <sheet name="4__71b1f04c-7b10-368" sheetId="17" r:id="rId17"/>
+    <sheet name="11_(b)_a3d5c4a6-a9b4" sheetId="4" r:id="rId4"/>
+    <sheet name="7_(b)_e3a05594-866a-" sheetId="5" r:id="rId5"/>
+    <sheet name="7_(b)_710210f9-41d4-" sheetId="6" r:id="rId6"/>
+    <sheet name="7_(c)_e3a05594-866a-" sheetId="7" r:id="rId7"/>
+    <sheet name="12__51c61e95-fc3c-3e" sheetId="8" r:id="rId8"/>
+    <sheet name="13__51c61e95-fc3c-3e" sheetId="9" r:id="rId9"/>
+    <sheet name="13__ce85c201-f65d-3a" sheetId="10" r:id="rId10"/>
+    <sheet name="14__ff944637-e0b0-3d" sheetId="11" r:id="rId11"/>
+    <sheet name="15__d53d4967-c596-36" sheetId="12" r:id="rId12"/>
+    <sheet name="15__ec79c015-ce95-34" sheetId="13" r:id="rId13"/>
+    <sheet name="15__0d429d65-e9d0-3d" sheetId="14" r:id="rId14"/>
+    <sheet name="15__ea17fabf-481c-30" sheetId="15" r:id="rId15"/>
+    <sheet name="16__c83758f9-d318-34" sheetId="16" r:id="rId16"/>
+    <sheet name="2__8ad934fd-533f-3a9" sheetId="17" r:id="rId17"/>
+    <sheet name="3__e382c558-d8ea-313" sheetId="18" r:id="rId18"/>
+    <sheet name="4__71b1f04c-7b10-368" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="80">
   <si>
     <t>rows</t>
   </si>
@@ -65,66 +67,12 @@
     <t>$000</t>
   </si>
   <si>
-    <t>5876</t>
-  </si>
-  <si>
-    <t>(132)</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>1240</t>
-  </si>
-  <si>
-    <t>7002</t>
-  </si>
-  <si>
-    <t>8617</t>
-  </si>
-  <si>
-    <t>(168)</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>956</t>
-  </si>
-  <si>
-    <t>9447</t>
-  </si>
-  <si>
     <t>Current Finished goods at net realisable value</t>
   </si>
   <si>
     <t>Current Stock in transit</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>54607</t>
-  </si>
-  <si>
-    <t>64068</t>
-  </si>
-  <si>
-    <t>118675</t>
-  </si>
-  <si>
-    <t>17663</t>
-  </si>
-  <si>
-    <t>36513</t>
-  </si>
-  <si>
-    <t>54176</t>
-  </si>
-  <si>
     <t>Freehold land Freehold land</t>
   </si>
   <si>
@@ -179,76 +127,40 @@
     <t>Plant, equipment, motorvehicles and outboard Total carrying amount at end of year</t>
   </si>
   <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>1748</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>(84)</t>
-  </si>
-  <si>
-    <t>1772</t>
-  </si>
-  <si>
-    <t>5056</t>
-  </si>
-  <si>
-    <t>3375</t>
-  </si>
-  <si>
-    <t>(2,521)</t>
-  </si>
-  <si>
-    <t>(1,273)</t>
-  </si>
-  <si>
-    <t>4637</t>
-  </si>
-  <si>
-    <t>7120</t>
-  </si>
-  <si>
-    <t>1745</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>(86)</t>
-  </si>
-  <si>
-    <t>5646</t>
-  </si>
-  <si>
-    <t>3494</t>
-  </si>
-  <si>
-    <t>(2,909)</t>
-  </si>
-  <si>
-    <t>(1,175)</t>
-  </si>
-  <si>
-    <t>7514</t>
-  </si>
-  <si>
-    <t>Class C 30% (2021:30%) franking credits available to shareholders Class C 30% (2021:30%) franking credits available to shareholders</t>
-  </si>
-  <si>
-    <t>Class C 30% (2021:30%) franking credits available to shareholders ofthe Company for subsequent financial years</t>
+    <t>on the following items: on the following items:</t>
+  </si>
+  <si>
+    <t>Provisions and accrued employee entitlements not Provisions and accrued employee entitlements not</t>
+  </si>
+  <si>
+    <t>Provisions and accrued employee entitlements not currently deductible</t>
+  </si>
+  <si>
+    <t>Provisions and accrued employee entitlements not Lease Liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provisions and accrued employee entitlements not </t>
+  </si>
+  <si>
+    <t>Recoveryofdeferred tax assets (DTA) Recoveryofdeferred tax assets (DTA)</t>
+  </si>
+  <si>
+    <t>DTA expected to be recovered within 12 months DTA expected to be recovered within 12 months</t>
+  </si>
+  <si>
+    <t>DTA expected to be recovered within 12 months DTA expected to be recovered after more than 12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTA expected to be recovered within 12 months </t>
   </si>
   <si>
     <t>$'000</t>
   </si>
   <si>
-    <t>35875</t>
-  </si>
-  <si>
-    <t>31451</t>
+    <t xml:space="preserve"> Rightol-use-assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Current Trade payables due to parent entity Suzuki Motor Corporation</t>
@@ -266,57 +178,21 @@
     <t>Current 13 Employee benefits</t>
   </si>
   <si>
-    <t>18249</t>
-  </si>
-  <si>
-    <t>2419</t>
-  </si>
-  <si>
-    <t>16178</t>
-  </si>
-  <si>
-    <t>36847</t>
-  </si>
-  <si>
-    <t>18122</t>
-  </si>
-  <si>
-    <t>1451</t>
-  </si>
-  <si>
-    <t>14591</t>
-  </si>
-  <si>
-    <t>34164</t>
+    <t>Current Liability for annual and long- service leave</t>
+  </si>
+  <si>
+    <t>Non-current Non-current</t>
+  </si>
+  <si>
+    <t>Non-current Liability for long-service leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-current </t>
   </si>
   <si>
     <t>2021 $000</t>
   </si>
   <si>
-    <t>Current Liability for annual and long- service leave</t>
-  </si>
-  <si>
-    <t>Non-current Non-current</t>
-  </si>
-  <si>
-    <t>Non-current Liability for long-service leave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-current </t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>1850</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
     <t xml:space="preserve"> months</t>
   </si>
   <si>
@@ -326,24 +202,12 @@
     <t>2021 $'000</t>
   </si>
   <si>
-    <t>797</t>
-  </si>
-  <si>
-    <t>845</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Roadside assistance</t>
   </si>
   <si>
     <t>Current Non-current</t>
   </si>
   <si>
-    <t>4692</t>
-  </si>
-  <si>
-    <t>3796</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Retail Bonus adjustment</t>
   </si>
   <si>
@@ -371,90 +235,15 @@
     <t>Non-current Carrying amount at end of year</t>
   </si>
   <si>
-    <t>1330</t>
-  </si>
-  <si>
-    <t>2495</t>
-  </si>
-  <si>
-    <t>2731</t>
-  </si>
-  <si>
-    <t>(797)</t>
-  </si>
-  <si>
-    <t>(183)</t>
-  </si>
-  <si>
-    <t>1751</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>992</t>
-  </si>
-  <si>
-    <t>854</t>
-  </si>
-  <si>
-    <t>1622</t>
-  </si>
-  <si>
-    <t>4078</t>
-  </si>
-  <si>
-    <t>(1,053)</t>
-  </si>
-  <si>
-    <t>(294)</t>
-  </si>
-  <si>
-    <t>1414</t>
-  </si>
-  <si>
-    <t>1317</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Dealer incentive, promotionaland. DSM budget</t>
   </si>
   <si>
-    <t>1497</t>
-  </si>
-  <si>
-    <t>989</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Deferred Revenue</t>
   </si>
   <si>
     <t>Non-current Total Contract Liabilities</t>
   </si>
   <si>
-    <t>1320</t>
-  </si>
-  <si>
-    <t>7402</t>
-  </si>
-  <si>
-    <t>5684</t>
-  </si>
-  <si>
-    <t>13086</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>5373</t>
-  </si>
-  <si>
-    <t>5113</t>
-  </si>
-  <si>
-    <t>10486</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Balance at 1 April</t>
   </si>
   <si>
@@ -483,33 +272,6 @@
   </si>
   <si>
     <t>Retained profits On issue 31 March</t>
-  </si>
-  <si>
-    <t>22400</t>
-  </si>
-  <si>
-    <t>64029</t>
-  </si>
-  <si>
-    <t>17703</t>
-  </si>
-  <si>
-    <t>81732</t>
-  </si>
-  <si>
-    <t>Ordinary</t>
-  </si>
-  <si>
-    <t>Shares</t>
-  </si>
-  <si>
-    <t>'000</t>
-  </si>
-  <si>
-    <t>53982</t>
-  </si>
-  <si>
-    <t>10047</t>
   </si>
 </sst>
 </file>
@@ -897,6 +659,9 @@
       <c r="C2">
         <v>2022</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -908,8 +673,8 @@
       <c r="C3">
         <v>2022</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
+      <c r="D3">
+        <v>5876</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -922,8 +687,8 @@
       <c r="C4">
         <v>2022</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
+      <c r="D4">
+        <v>-132</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -936,8 +701,8 @@
       <c r="C5">
         <v>2022</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
+      <c r="D5">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -950,8 +715,8 @@
       <c r="C6">
         <v>2022</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
+      <c r="D6">
+        <v>1240</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -964,8 +729,8 @@
       <c r="C7">
         <v>2022</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
+      <c r="D7">
+        <v>7002</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -978,6 +743,9 @@
       <c r="C8">
         <v>2021</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -989,8 +757,8 @@
       <c r="C9">
         <v>2021</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
+      <c r="D9">
+        <v>8617</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1003,8 +771,8 @@
       <c r="C10">
         <v>2021</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
+      <c r="D10">
+        <v>-168</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1017,8 +785,8 @@
       <c r="C11">
         <v>2021</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
+      <c r="D11">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1031,8 +799,8 @@
       <c r="C12">
         <v>2021</v>
       </c>
-      <c r="D12" t="s">
-        <v>19</v>
+      <c r="D12">
+        <v>956</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1045,8 +813,8 @@
       <c r="C13">
         <v>2021</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
+      <c r="D13">
+        <v>9447</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +824,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1078,108 +846,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>797</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>103</v>
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="D3">
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -1189,547 +879,12 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2">
-        <v>2022</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3">
-        <v>2022</v>
-      </c>
-      <c r="D3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5">
-        <v>2022</v>
-      </c>
-      <c r="D5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6">
-        <v>2022</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7">
-        <v>2022</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8">
-        <v>2022</v>
-      </c>
-      <c r="D8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9">
-        <v>2022</v>
-      </c>
-      <c r="D9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11">
-        <v>2022</v>
-      </c>
-      <c r="D11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12">
-        <v>2022</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13">
-        <v>2022</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14">
-        <v>2022</v>
-      </c>
-      <c r="D14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15">
-        <v>2022</v>
-      </c>
-      <c r="D15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16">
-        <v>2022</v>
-      </c>
-      <c r="D16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17">
-        <v>2022</v>
-      </c>
-      <c r="D17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18">
-        <v>2022</v>
-      </c>
-      <c r="D18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19">
-        <v>2022</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20">
-        <v>2022</v>
-      </c>
-      <c r="D20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21">
-        <v>2021</v>
-      </c>
-      <c r="D21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22">
-        <v>2021</v>
-      </c>
-      <c r="D22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24">
-        <v>2021</v>
-      </c>
-      <c r="D24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25">
-        <v>2021</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26">
-        <v>2021</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27">
-        <v>2021</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28">
-        <v>2021</v>
-      </c>
-      <c r="D28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30">
-        <v>2021</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31">
-        <v>2021</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32">
-        <v>2021</v>
-      </c>
-      <c r="D32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33">
-        <v>2021</v>
-      </c>
-      <c r="D33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34">
-        <v>2021</v>
-      </c>
-      <c r="D34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35">
-        <v>2021</v>
-      </c>
-      <c r="D35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36">
-        <v>2021</v>
-      </c>
-      <c r="D36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37">
-        <v>2021</v>
-      </c>
-      <c r="D37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38">
-        <v>2021</v>
-      </c>
-      <c r="D38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39">
-        <v>2021</v>
-      </c>
-      <c r="D39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1758,108 +913,114 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>2022</v>
       </c>
-      <c r="D2" t="s">
-        <v>129</v>
+      <c r="D2">
+        <v>4692</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
-      <c r="D3" t="s">
-        <v>129</v>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>4692</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
-      <c r="D5" t="s">
-        <v>129</v>
+      <c r="D5">
+        <v>4692</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>2021</v>
       </c>
-      <c r="D6" t="s">
-        <v>130</v>
+      <c r="D6">
+        <v>3796</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>2021</v>
       </c>
-      <c r="D7" t="s">
-        <v>130</v>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>2021</v>
+      </c>
+      <c r="D8">
+        <v>3796</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>2021</v>
       </c>
-      <c r="D9" t="s">
-        <v>130</v>
+      <c r="D9">
+        <v>3796</v>
       </c>
     </row>
   </sheetData>
@@ -1868,6 +1029,704 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15">
+        <v>-797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
+      </c>
+      <c r="D16">
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
+      </c>
+      <c r="D17">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="D18">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>2022</v>
+      </c>
+      <c r="D19">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>2022</v>
+      </c>
+      <c r="D20">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>2021</v>
+      </c>
+      <c r="D21">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>2021</v>
+      </c>
+      <c r="D22">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>2021</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>2021</v>
+      </c>
+      <c r="D24">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>2021</v>
+      </c>
+      <c r="D25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>2021</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>2021</v>
+      </c>
+      <c r="D27">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>2021</v>
+      </c>
+      <c r="D28">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>2021</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>2021</v>
+      </c>
+      <c r="D30">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>2021</v>
+      </c>
+      <c r="D31">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>2021</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>2021</v>
+      </c>
+      <c r="D33">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>2021</v>
+      </c>
+      <c r="D34">
+        <v>-1053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>2021</v>
+      </c>
+      <c r="D35">
+        <v>-294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>2021</v>
+      </c>
+      <c r="D36">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>2021</v>
+      </c>
+      <c r="D37">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>2021</v>
+      </c>
+      <c r="D38">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>2021</v>
+      </c>
+      <c r="D39">
+        <v>2731</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
+      </c>
+      <c r="D6">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>2021</v>
+      </c>
+      <c r="D7">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>2021</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="D9">
+        <v>989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1891,248 +1750,254 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>2022</v>
       </c>
-      <c r="D2" t="s">
-        <v>133</v>
+      <c r="D2">
+        <v>1320</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
-      <c r="D3" t="s">
-        <v>133</v>
+      <c r="D3">
+        <v>1320</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
-      <c r="D5" t="s">
-        <v>133</v>
+      <c r="D5">
+        <v>1320</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>2022</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
+      <c r="D6">
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
-      <c r="D7" t="s">
-        <v>70</v>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>2022</v>
       </c>
-      <c r="D8" t="s">
-        <v>134</v>
+      <c r="D8">
+        <v>7402</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
-      <c r="D9" t="s">
-        <v>135</v>
+      <c r="D9">
+        <v>5684</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>2022</v>
       </c>
-      <c r="D10" t="s">
-        <v>136</v>
+      <c r="D10">
+        <v>13086</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>2021</v>
       </c>
-      <c r="D11" t="s">
-        <v>137</v>
+      <c r="D11">
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>2021</v>
       </c>
-      <c r="D12" t="s">
-        <v>137</v>
+      <c r="D12">
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>2021</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>2021</v>
       </c>
-      <c r="D14" t="s">
-        <v>137</v>
+      <c r="D14">
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>2021</v>
       </c>
-      <c r="D15" t="s">
-        <v>24</v>
+      <c r="D15">
+        <v>2021</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>2021</v>
       </c>
-      <c r="D16" t="s">
-        <v>70</v>
+      <c r="D16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>2021</v>
       </c>
-      <c r="D17" t="s">
-        <v>138</v>
+      <c r="D17">
+        <v>5373</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>2021</v>
       </c>
-      <c r="D18" t="s">
-        <v>139</v>
+      <c r="D18">
+        <v>5113</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>2021</v>
       </c>
-      <c r="D19" t="s">
-        <v>140</v>
+      <c r="D19">
+        <v>10486</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -2164,304 +2029,310 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>2022</v>
       </c>
-      <c r="D2" t="s">
-        <v>151</v>
+      <c r="D2">
+        <v>22400</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
-      <c r="D3" t="s">
-        <v>151</v>
+      <c r="D3">
+        <v>22400</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
-      <c r="D5" t="s">
-        <v>152</v>
+      <c r="D5">
+        <v>64029</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>2022</v>
       </c>
-      <c r="D6" t="s">
-        <v>153</v>
+      <c r="D6">
+        <v>17703</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
-      <c r="D7" t="s">
-        <v>154</v>
+      <c r="D7">
+        <v>81732</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>2022</v>
       </c>
-      <c r="D8" t="s">
-        <v>155</v>
+      <c r="D8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
-      <c r="D9" t="s">
-        <v>156</v>
+      <c r="D9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>2022</v>
       </c>
-      <c r="D10" t="s">
-        <v>157</v>
+      <c r="D10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
-      <c r="D11" t="s">
-        <v>151</v>
+      <c r="D11">
+        <v>22400</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>2022</v>
       </c>
-      <c r="D12" t="s">
-        <v>151</v>
+      <c r="D12">
+        <v>22400</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>2021</v>
       </c>
-      <c r="D13" t="s">
-        <v>151</v>
+      <c r="D13">
+        <v>22400</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>2021</v>
       </c>
-      <c r="D14" t="s">
-        <v>151</v>
+      <c r="D14">
+        <v>22400</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>2021</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>2021</v>
       </c>
-      <c r="D16" t="s">
-        <v>158</v>
+      <c r="D16">
+        <v>53982</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>2021</v>
       </c>
-      <c r="D17" t="s">
-        <v>159</v>
+      <c r="D17">
+        <v>10047</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>2021</v>
       </c>
-      <c r="D18" t="s">
-        <v>152</v>
+      <c r="D18">
+        <v>64029</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>2021</v>
       </c>
-      <c r="D19" t="s">
-        <v>155</v>
+      <c r="D19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>2021</v>
       </c>
-      <c r="D20" t="s">
-        <v>156</v>
+      <c r="D20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>2021</v>
       </c>
-      <c r="D21" t="s">
-        <v>157</v>
+      <c r="D21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>2021</v>
       </c>
-      <c r="D22" t="s">
-        <v>151</v>
+      <c r="D22">
+        <v>22400</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>2021</v>
       </c>
-      <c r="D23" t="s">
-        <v>151</v>
+      <c r="D23">
+        <v>22400</v>
       </c>
     </row>
   </sheetData>
@@ -2469,7 +2340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2481,7 +2352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2493,7 +2364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2531,82 +2402,88 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3">
+        <v>54607</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>64068</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>118675</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
+      <c r="C6">
+        <v>2021</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2021</v>
+      </c>
+      <c r="D7">
+        <v>17663</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2021</v>
+      </c>
+      <c r="D8">
+        <v>36513</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="D9">
+        <v>54176</v>
       </c>
     </row>
   </sheetData>
@@ -2638,362 +2515,398 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3">
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>1748</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>-84</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>53</v>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>1772</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14">
+        <v>5056</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15">
+        <v>3375</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
+      </c>
+      <c r="D16">
+        <v>-2521</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
+      </c>
+      <c r="D17">
+        <v>-1273</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="D18">
+        <v>4637</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>2022</v>
+      </c>
+      <c r="D19">
+        <v>7120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>2021</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>2021</v>
+      </c>
+      <c r="D21">
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>2021</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>2021</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>2021</v>
+      </c>
+      <c r="D24">
+        <v>710</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>2021</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>2021</v>
+      </c>
+      <c r="D26">
+        <v>1745</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>2021</v>
+      </c>
+      <c r="D27">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>2021</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>2021</v>
+      </c>
+      <c r="D29">
+        <v>-86</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>2021</v>
+      </c>
+      <c r="D30">
+        <v>1748</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
         <v>24</v>
+      </c>
+      <c r="C31">
+        <v>2021</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>2021</v>
+      </c>
+      <c r="D32">
+        <v>5646</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
-        <v>64</v>
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>2021</v>
+      </c>
+      <c r="D33">
+        <v>3494</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>2021</v>
+      </c>
+      <c r="D34">
+        <v>-2909</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" t="s">
-        <v>66</v>
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>2021</v>
+      </c>
+      <c r="D35">
+        <v>-1175</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" t="s">
-        <v>54</v>
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>2021</v>
+      </c>
+      <c r="D36">
+        <v>5056</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" t="s">
-        <v>67</v>
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>2021</v>
+      </c>
+      <c r="D37">
+        <v>7514</v>
       </c>
     </row>
   </sheetData>
@@ -3015,6 +2928,297 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>6161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>6161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>2021</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>2021</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>2021</v>
+      </c>
+      <c r="D13">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>2021</v>
+      </c>
+      <c r="D14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>2021</v>
+      </c>
+      <c r="D15">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>2021</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>2021</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>2021</v>
+      </c>
+      <c r="D18">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>2021</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3037,52 +3241,58 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
-      <c r="D3" t="s">
-        <v>71</v>
+      <c r="D3">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>2021</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>2021</v>
       </c>
-      <c r="D5" t="s">
-        <v>72</v>
+      <c r="D5">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3090,7 +3300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -3117,80 +3327,83 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
-      <c r="D3" t="s">
-        <v>78</v>
+      <c r="D3">
+        <v>18249</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>2022</v>
       </c>
-      <c r="D4" t="s">
-        <v>79</v>
+      <c r="D4">
+        <v>2419</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
-      <c r="D5" t="s">
-        <v>80</v>
+      <c r="D5">
+        <v>16178</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>2022</v>
       </c>
-      <c r="D6" t="s">
-        <v>81</v>
+      <c r="D6">
+        <v>36847</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
+      <c r="D7">
+        <v>2022</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3198,13 +3411,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>2022</v>
       </c>
-      <c r="D8" t="s">
-        <v>70</v>
+      <c r="D8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3212,80 +3425,83 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>2021</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>2021</v>
       </c>
-      <c r="D10" t="s">
-        <v>82</v>
+      <c r="D10">
+        <v>18122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>2021</v>
       </c>
-      <c r="D11" t="s">
-        <v>83</v>
+      <c r="D11">
+        <v>1451</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>2021</v>
       </c>
-      <c r="D12" t="s">
-        <v>84</v>
+      <c r="D12">
+        <v>14591</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>2021</v>
       </c>
-      <c r="D13" t="s">
-        <v>85</v>
+      <c r="D13">
+        <v>34164</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>2021</v>
       </c>
-      <c r="D14" t="s">
-        <v>86</v>
+      <c r="D14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3293,13 +3509,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>2021</v>
       </c>
-      <c r="D15" t="s">
-        <v>86</v>
+      <c r="D15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3307,7 +3523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3334,24 +3550,27 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3">
+        <v>2040</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3359,52 +3578,55 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>2040</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3412,24 +3634,27 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>2021</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="D9">
+        <v>1850</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3437,122 +3662,58 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>2021</v>
+      </c>
+      <c r="D10">
+        <v>1850</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>2021</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>94</v>
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>2021</v>
+      </c>
+      <c r="D12">
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>94</v>
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>2021</v>
+      </c>
+      <c r="D13">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>